--- a/DWCPRO_設計課題_テーブル定義書_回答用 のコピー.xlsx
+++ b/DWCPRO_設計課題_テーブル定義書_回答用 のコピー.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -55,10 +55,7 @@
     <t>データベース名</t>
   </si>
   <si>
-    <t>nagano cake</t>
-  </si>
-  <si>
-    <t>order history</t>
+    <t>nagano_cake</t>
   </si>
   <si>
     <t>カラム名</t>
@@ -88,205 +85,199 @@
     <t>DEFAULT</t>
   </si>
   <si>
-    <t>order history details</t>
+    <t>order_history_id</t>
+  </si>
+  <si>
+    <t>注文履歴id</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>会員id</t>
+  </si>
+  <si>
+    <t>post_code</t>
+  </si>
+  <si>
+    <t>配送先郵便番号</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>配送先住所</t>
+  </si>
+  <si>
+    <t>nane</t>
+  </si>
+  <si>
+    <t>配送先氏名</t>
+  </si>
+  <si>
+    <t>postage</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>請求額</t>
+  </si>
+  <si>
+    <t>method_of_payment</t>
+  </si>
+  <si>
+    <t>支払方法</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>受注ステータス</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新日時</t>
   </si>
   <si>
     <t>注文履歴詳細id</t>
   </si>
   <si>
-    <t>◯</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>注文履歴id</t>
-  </si>
-  <si>
-    <t>post code</t>
-  </si>
-  <si>
-    <t>配送先郵便番号</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>配送先住所</t>
-  </si>
-  <si>
-    <t>nane</t>
-  </si>
-  <si>
-    <t>配送先氏名</t>
-  </si>
-  <si>
-    <t>postage</t>
-  </si>
-  <si>
-    <t>送料</t>
-  </si>
-  <si>
-    <t>total amount</t>
-  </si>
-  <si>
-    <t>請求額</t>
-  </si>
-  <si>
-    <t>method of payment</t>
-  </si>
-  <si>
-    <t>支払方法</t>
-  </si>
-  <si>
-    <t>order status</t>
-  </si>
-  <si>
-    <t>受注ステータス</t>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>商品id</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>単価（税込価格）</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>個数</t>
+  </si>
+  <si>
+    <t>production_status</t>
+  </si>
+  <si>
+    <t>制作ステータス</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>配送先ID</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>会員ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>宛名</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>管理者ID</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>encrypted_password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>商品画像ID</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>商品説明文</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>税抜き価格</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>販売ステータス</t>
   </si>
   <si>
     <t>boolean</t>
-  </si>
-  <si>
-    <t>created at</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>updated at</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>商品id</t>
-  </si>
-  <si>
-    <t>unit price</t>
-  </si>
-  <si>
-    <t>単価（税込価格）</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>個数</t>
-  </si>
-  <si>
-    <t>production status</t>
-  </si>
-  <si>
-    <t>制作ステータス</t>
-  </si>
-  <si>
-    <t>nagano_cake</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>配送先ID</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>会員ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>宛名</t>
-  </si>
-  <si>
-    <t>postal_code</t>
-  </si>
-  <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>管理者ID</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>encrypted_password</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>genre_id</t>
-  </si>
-  <si>
-    <t>ジャンルID</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
-    <t>商品画像ID</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>商品説明文</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>税抜き価格</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>販売ステータス</t>
   </si>
   <si>
     <t>last_name</t>
@@ -840,81 +831,81 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="G21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -932,7 +923,7 @@
         <v>30</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="2"/>
@@ -948,10 +939,10 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -967,10 +958,10 @@
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -989,7 +980,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
@@ -1008,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -1024,10 +1015,10 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -1043,10 +1034,10 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -1054,18 +1045,18 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -1073,18 +1064,18 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -1098,81 +1089,81 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="I37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="J37" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="8" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -1186,13 +1177,13 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="G40" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="2"/>
@@ -1208,10 +1199,10 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
@@ -1227,10 +1218,10 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1246,10 +1237,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="4" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
@@ -1257,18 +1248,18 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>45</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -1276,18 +1267,18 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -2346,7 +2337,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -2370,78 +2361,78 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2450,10 +2441,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2461,7 +2452,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2470,10 +2461,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2481,7 +2472,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2493,7 +2484,7 @@
         <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2501,7 +2492,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2510,45 +2501,45 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K15" s="5"/>
     </row>
@@ -3581,7 +3572,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -3605,68 +3596,68 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3674,7 +3665,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3683,10 +3674,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -3694,7 +3685,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3703,45 +3694,45 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="5"/>
     </row>
@@ -4779,7 +4770,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -4803,78 +4794,78 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -4883,10 +4874,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4894,7 +4885,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4903,10 +4894,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -4914,7 +4905,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4923,18 +4914,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -4943,18 +4934,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4963,18 +4954,18 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -4985,45 +4976,45 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K17" s="5"/>
     </row>
@@ -6057,7 +6048,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -6081,68 +6072,68 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6150,7 +6141,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6159,10 +6150,10 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -6170,7 +6161,7 @@
         <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6179,10 +6170,10 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -6190,7 +6181,7 @@
         <v>30</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6199,10 +6190,10 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -6210,7 +6201,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6219,10 +6210,10 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -6230,7 +6221,7 @@
         <v>30</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6239,10 +6230,10 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -6250,7 +6241,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6259,10 +6250,10 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6270,7 +6261,7 @@
         <v>30</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6282,7 +6273,7 @@
         <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6290,7 +6281,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6299,10 +6290,10 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -6310,7 +6301,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6319,18 +6310,18 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6341,45 +6332,45 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K21" s="5"/>
     </row>
@@ -7409,7 +7400,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -7433,68 +7424,68 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7502,7 +7493,7 @@
         <v>30</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7511,45 +7502,45 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K12" s="5"/>
     </row>
@@ -8587,7 +8578,7 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="15"/>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -8611,78 +8602,78 @@
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8691,20 +8682,20 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8713,18 +8704,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8733,45 +8724,45 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K14" s="5"/>
     </row>

--- a/DWCPRO_設計課題_テーブル定義書_回答用 のコピー.xlsx
+++ b/DWCPRO_設計課題_テーブル定義書_回答用 のコピー.xlsx
@@ -977,7 +977,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>24</v>
@@ -996,7 +996,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>24</v>

--- a/DWCPRO_設計課題_テーブル定義書_回答用 のコピー.xlsx
+++ b/DWCPRO_設計課題_テーブル定義書_回答用 のコピー.xlsx
@@ -10,6 +10,8 @@
     <sheet state="visible" name="customers" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="genres" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="cart_items" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="order_history" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="order_history_details" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
   </si>
@@ -85,87 +87,225 @@
     <t>DEFAULT</t>
   </si>
   <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>配送先ID</t>
+  </si>
+  <si>
+    <t>◯</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>会員ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>宛名</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>郵便番号</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>住所</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>更新日時</t>
+  </si>
+  <si>
+    <t>管理者ID</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>encrypted_password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>genre_id</t>
+  </si>
+  <si>
+    <t>ジャンルID</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>商品画像ID</t>
+  </si>
+  <si>
+    <t>introduction</t>
+  </si>
+  <si>
+    <t>商品説明文</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>税抜き価格</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>販売ステータス</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>姓</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>last_name_kana</t>
+  </si>
+  <si>
+    <t>姓カナ</t>
+  </si>
+  <si>
+    <t>first_name_kana</t>
+  </si>
+  <si>
+    <t>名カナ</t>
+  </si>
+  <si>
+    <t>telephone_number</t>
+  </si>
+  <si>
+    <t>電話番号</t>
+  </si>
+  <si>
+    <t>退会ステータス</t>
+  </si>
+  <si>
+    <t>ジャンル名</t>
+  </si>
+  <si>
+    <t>カート内商品ID</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>注文履歴id</t>
+  </si>
+  <si>
+    <t>会員id</t>
+  </si>
+  <si>
+    <t>post_code</t>
+  </si>
+  <si>
+    <t>配送先郵便番号</t>
+  </si>
+  <si>
+    <t>配送先住所</t>
+  </si>
+  <si>
+    <t>nane</t>
+  </si>
+  <si>
+    <t>配送先氏名</t>
+  </si>
+  <si>
+    <t>postage</t>
+  </si>
+  <si>
+    <t>送料</t>
+  </si>
+  <si>
+    <t>total_amount</t>
+  </si>
+  <si>
+    <t>請求額</t>
+  </si>
+  <si>
+    <t>method_of_payment</t>
+  </si>
+  <si>
+    <t>支払方法</t>
+  </si>
+  <si>
+    <t>order_status</t>
+  </si>
+  <si>
+    <t>受注ステータス</t>
+  </si>
+  <si>
+    <t>作成日時</t>
+  </si>
+  <si>
+    <t>注文履歴詳細id</t>
+  </si>
+  <si>
     <t>order_history_id</t>
   </si>
   <si>
-    <t>注文履歴id</t>
-  </si>
-  <si>
-    <t>◯</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>会員id</t>
-  </si>
-  <si>
-    <t>post_code</t>
-  </si>
-  <si>
-    <t>配送先郵便番号</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>配送先住所</t>
-  </si>
-  <si>
-    <t>nane</t>
-  </si>
-  <si>
-    <t>配送先氏名</t>
-  </si>
-  <si>
-    <t>postage</t>
-  </si>
-  <si>
-    <t>送料</t>
-  </si>
-  <si>
-    <t>total_amount</t>
-  </si>
-  <si>
-    <t>請求額</t>
-  </si>
-  <si>
-    <t>method_of_payment</t>
-  </si>
-  <si>
-    <t>支払方法</t>
-  </si>
-  <si>
-    <t>order_status</t>
-  </si>
-  <si>
-    <t>受注ステータス</t>
-  </si>
-  <si>
-    <t>created_at</t>
-  </si>
-  <si>
-    <t>作成日時</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>更新日時</t>
-  </si>
-  <si>
-    <t>注文履歴詳細id</t>
-  </si>
-  <si>
     <t>product_id</t>
   </si>
   <si>
@@ -188,144 +328,6 @@
   </si>
   <si>
     <t>制作ステータス</t>
-  </si>
-  <si>
-    <t>備考</t>
-  </si>
-  <si>
-    <t>配送先ID</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>会員ID</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>宛名</t>
-  </si>
-  <si>
-    <t>postal_code</t>
-  </si>
-  <si>
-    <t>郵便番号</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>管理者ID</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>メールアドレス</t>
-  </si>
-  <si>
-    <t>encrypted_password</t>
-  </si>
-  <si>
-    <t>パスワード</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>genre_id</t>
-  </si>
-  <si>
-    <t>ジャンルID</t>
-  </si>
-  <si>
-    <t>商品名</t>
-  </si>
-  <si>
-    <t>image_id</t>
-  </si>
-  <si>
-    <t>商品画像ID</t>
-  </si>
-  <si>
-    <t>introduction</t>
-  </si>
-  <si>
-    <t>商品説明文</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>税抜き価格</t>
-  </si>
-  <si>
-    <t>is_active</t>
-  </si>
-  <si>
-    <t>販売ステータス</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>姓</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>名</t>
-  </si>
-  <si>
-    <t>last_name_kana</t>
-  </si>
-  <si>
-    <t>姓カナ</t>
-  </si>
-  <si>
-    <t>first_name_kana</t>
-  </si>
-  <si>
-    <t>名カナ</t>
-  </si>
-  <si>
-    <t>telephone_number</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>退会ステータス</t>
-  </si>
-  <si>
-    <t>ジャンル名</t>
-  </si>
-  <si>
-    <t>カート内商品ID</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>数量</t>
   </si>
 </sst>
 </file>
@@ -420,6 +422,11 @@
       </top>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -430,16 +437,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -453,20 +455,11 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -484,8 +477,23 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -519,6 +527,14 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -814,541 +830,199 @@
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="18" ht="15.75" customHeight="1"/>
+    <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="B23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="7" t="s">
-        <v>2</v>
-      </c>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
-      <c r="F45" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" ht="15.75" customHeight="1"/>
     <row r="53" ht="15.75" customHeight="1"/>
@@ -2335,7 +2009,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -2388,51 +2062,51 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
-        <v>24</v>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2441,18 +2115,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2461,18 +2135,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2481,18 +2155,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2501,59 +2175,59 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="17" t="s">
-        <v>45</v>
+      <c r="F14" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="17" t="s">
-        <v>45</v>
+      <c r="F15" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K15" s="5"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
@@ -3570,7 +3244,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -3623,49 +3297,49 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -3674,18 +3348,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -3694,59 +3368,59 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="17" t="s">
-        <v>45</v>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="17" t="s">
-        <v>45</v>
+      <c r="F13" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K13" s="5"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
@@ -4768,7 +4442,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -4821,51 +4495,51 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
-        <v>24</v>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -4874,18 +4548,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4894,18 +4568,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -4914,18 +4588,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -4934,18 +4608,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4954,18 +4628,18 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -4976,59 +4650,59 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="17" t="s">
-        <v>45</v>
+      <c r="F16" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="17" t="s">
-        <v>45</v>
+      <c r="F17" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1"/>
     <row r="20" ht="15.75" customHeight="1"/>
@@ -6037,7 +5711,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="19"/>
+      <c r="A1" s="16"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="B2" s="2" t="s">
@@ -6046,7 +5720,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -6099,49 +5773,49 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -6150,18 +5824,18 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6170,18 +5844,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -6190,18 +5864,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -6210,18 +5884,18 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -6230,18 +5904,18 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -6250,18 +5924,18 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -6270,18 +5944,18 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -6290,18 +5964,18 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -6310,18 +5984,18 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -6332,59 +6006,59 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="17" t="s">
-        <v>45</v>
+      <c r="F21" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K21" s="5"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
     </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -7398,7 +7072,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -7451,49 +7125,49 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -7502,59 +7176,59 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="17" t="s">
-        <v>45</v>
+      <c r="F11" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="17" t="s">
-        <v>45</v>
+      <c r="F12" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K12" s="5"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -8576,7 +8250,7 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
@@ -8629,51 +8303,51 @@
         <v>21</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="B10" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="16" t="s">
-        <v>24</v>
+      <c r="E10" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -8682,20 +8356,20 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="4" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="16" t="s">
-        <v>24</v>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -8704,18 +8378,18 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -8724,59 +8398,59 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="17" t="s">
-        <v>45</v>
+      <c r="F13" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="17" t="s">
-        <v>45</v>
+      <c r="F14" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="K14" s="5"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -9769,4 +9443,522 @@
   <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="18.57"/>
+    <col customWidth="1" min="3" max="3" width="14.43"/>
+    <col customWidth="1" min="4" max="4" width="3.71"/>
+    <col customWidth="1" min="5" max="5" width="3.57"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="19.71"/>
+    <col customWidth="1" min="3" max="3" width="20.57"/>
+    <col customWidth="1" min="4" max="5" width="3.57"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="B14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+    </row>
+    <row r="16">
+      <c r="B16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>